--- a/Results/FileAnalysis/XLSX/results.xlsx
+++ b/Results/FileAnalysis/XLSX/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anti-lock braking system (ABS) for improved stopping power</t>
+          <t>Electric motor with a minimum range of 120 km per charge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Performance Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Achieving 60 km/l fuel efficiency may necessitate design choices that compromise braking system weight and performance, potentially hindering the effectiveness of the ABS.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Top speed of at least 100 km/h for versatility</t>
+          <t>Anti-lock braking system (ABS) for improved stopping power</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Performance Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Achieving high fuel efficiency often necessitates compromises in engine power and performance, hindering the ability to reach high top speeds.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Digital dashboard with smartphone connectivity</t>
+          <t>Top speed of at least 100 km/h for versatility</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Performance Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Achieving 60 km/l fuel efficiency may require design choices that compromise the space and power needed for a sophisticated digital dashboard with smartphone connectivity.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Annual maintenance cost below $120</t>
+          <t>Lightweight frame under 150 kg for better handling</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cost Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Achieving high fuel efficiency (60 km/l) may require expensive engine technology, increasing maintenance costs beyond $120.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
@@ -556,12 +556,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Performance Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Achieving 60 km/l fuel efficiency may necessitate design choices that compromise braking system weight and performance, making it difficult to also include front and rear disc brakes.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lightweight frame under 150 kg for better handling</t>
+          <t>Annual maintenance cost below $120</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Performance Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Achieving high fuel efficiency (60 km/l) often requires heavier engines and components, conflicting with the lightweight frame requirement.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
@@ -595,61 +595,61 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Compliance with global emission standards (e.g., BS6 or Euro 5)</t>
+          <t>Digital dashboard with smartphone connectivity</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Performance Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Achieving 60 km/l fuel efficiency may require significant technological advancements that might conflict with meeting stringent emission standards.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Anti-lock braking system (ABS) for improved stopping power</t>
+          <t>Fuel efficiency of at least 60 km/l for petrol engines</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Electric motor with a minimum range of 120 km per charge</t>
+          <t>Seat height adjustable between 750-850 mm for rider comfort</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Performance Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Adding ABS increases the vehicle's weight and energy consumption, potentially reducing the electric motor's range.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Anti-lock braking system (ABS) for improved stopping power</t>
+          <t>Fuel efficiency of at least 60 km/l for petrol engines</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Top speed of at least 100 km/h for versatility</t>
+          <t>Compliance with global emission standards (e.g., BS6 or Euro 5)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Performance Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Implementing ABS may increase vehicle weight and complexity, potentially reducing top speed.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Digital dashboard with smartphone connectivity</t>
+          <t>Top speed of at least 100 km/h for versatility</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cost Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Adding a digital dashboard with smartphone connectivity increases the overall vehicle cost, potentially impacting the budget allocated for the ABS system.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Annual maintenance cost below $120</t>
+          <t>Front and rear disc brakes for reliable performance</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cost Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Implementing and maintaining an ABS system is likely to exceed the specified annual maintenance budget.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
@@ -705,17 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lightweight frame under 150 kg for better handling</t>
+          <t>Electric motor with a minimum range of 120 km per charge</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Performance Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Adding ABS increases weight, potentially exceeding the 150kg lightweight frame requirement.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
@@ -727,68 +727,68 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Compliance with global emission standards (e.g., BS6 or Euro 5)</t>
+          <t>Lightweight frame under 150 kg for better handling</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Performance Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Implementing ABS might slightly increase vehicle weight and thus marginally affect fuel efficiency, potentially causing conflict with emission standards.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Electric motor with a minimum range of 120 km per charge</t>
+          <t>Anti-lock braking system (ABS) for improved stopping power</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Top speed of at least 100 km/h for versatility</t>
+          <t>Digital dashboard with smartphone connectivity</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Performance Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Achieving a longer range often necessitates design choices that compromise top speed, and vice-versa.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Electric motor with a minimum range of 120 km per charge</t>
+          <t>Anti-lock braking system (ABS) for improved stopping power</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Digital dashboard with smartphone connectivity</t>
+          <t>Seat height adjustable between 750-850 mm for rider comfort</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cost Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Achieving a 120km range requires a larger, more powerful, and thus more expensive battery, potentially increasing the overall cost beyond what is feasible for a model including a digital dashboard with smartphone connectivity.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Electric motor with a minimum range of 120 km per charge</t>
+          <t>Anti-lock braking system (ABS) for improved stopping power</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -798,107 +798,107 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cost Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Achieving a 120km range requires a larger, more powerful, and potentially more expensive battery and motor, increasing maintenance costs.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Electric motor with a minimum range of 120 km per charge</t>
+          <t>Anti-lock braking system (ABS) for improved stopping power</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Lightweight frame under 150 kg for better handling</t>
+          <t>Compliance with global emission standards (e.g., BS6 or Euro 5)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Performance Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Achieving a 120 km range requires a larger, heavier battery which conflicts with the lightweight frame requirement.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Electric motor with a minimum range of 120 km per charge</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>Top speed of at least 100 km/h for versatility</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Annual maintenance cost below $120</t>
-        </is>
-      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cost Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Achieving a top speed of 100 km/h typically requires a more powerful and complex engine, leading to higher maintenance costs than $120 annually.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Top speed of at least 100 km/h for versatility</t>
+          <t>Electric motor with a minimum range of 120 km per charge</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lightweight frame under 150 kg for better handling</t>
+          <t>Seat height adjustable between 750-850 mm for rider comfort</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Performance Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Achieving a top speed of 100 km/h typically requires a heavier frame than 150 kg, creating a trade-off between speed and handling.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Top speed of at least 100 km/h for versatility</t>
+          <t>Electric motor with a minimum range of 120 km per charge</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Compliance with global emission standards (e.g., BS6 or Euro 5)</t>
+          <t>Digital dashboard with smartphone connectivity</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Performance Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Achieving a top speed of 100 km/h may require a more powerful engine, potentially leading to higher emissions that may not comply with stringent global emission standards.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Seat height adjustable between 750-850 mm for rider comfort</t>
+          <t>Electric motor with a minimum range of 120 km per charge</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -908,19 +908,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Performance Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Achieving a lightweight frame under 150 kg might necessitate using materials that compromise the adjustability and sturdiness needed for a seat height range of 750-850 mm.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Seat height adjustable between 750-850 mm for rider comfort</t>
+          <t>Electric motor with a minimum range of 120 km per charge</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -930,188 +930,518 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cost Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Adjusting the seat height mechanism to achieve a wider range of adjustment may increase manufacturing and maintenance costs, potentially exceeding the $120 annual maintenance budget.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Digital dashboard with smartphone connectivity</t>
+          <t>Electric motor with a minimum range of 120 km per charge</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Annual maintenance cost below $120</t>
+          <t>Front and rear disc brakes for reliable performance</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cost Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Smartphone connectivity adds to the initial development and ongoing maintenance costs, potentially exceeding the $120 annual maintenance budget.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Digital dashboard with smartphone connectivity</t>
+          <t>Electric motor with a minimum range of 120 km per charge</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Lightweight frame under 150 kg for better handling</t>
+          <t>Compliance with global emission standards (e.g., BS6 or Euro 5)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Weight vs. Feature Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Integrating smartphone connectivity and a digital dashboard adds weight, potentially exceeding the 150kg lightweight frame requirement.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Front and rear disc brakes for reliable performance</t>
+          <t>Top speed of at least 100 km/h for versatility</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Annual maintenance cost below $120</t>
+          <t>Seat height adjustable between 750-850 mm for rider comfort</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cost Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Front and rear disc brakes are typically more expensive to maintain than other braking systems, potentially exceeding the $120 annual maintenance budget.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Front and rear disc brakes for reliable performance</t>
+          <t>Top speed of at least 100 km/h for versatility</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Lightweight frame under 150 kg for better handling</t>
+          <t>Annual maintenance cost below $120</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Performance Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Using heavier disc brakes conflicts with the need for a lightweight frame.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Annual maintenance cost below $120</t>
+          <t>Top speed of at least 100 km/h for versatility</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Lightweight frame under 150 kg for better handling</t>
+          <t>Digital dashboard with smartphone connectivity</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cost Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Lower maintenance cost may necessitate cheaper, heavier materials, conflicting with the lightweight frame requirement.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Front and rear disc brakes for reliable performance</t>
+          <t>Top speed of at least 100 km/h for versatility</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Compliance with global emission standards (e.g., BS6 or Euro 5)</t>
+          <t>Lightweight frame under 150 kg for better handling</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cost Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Implementing high-performance disc brakes may increase the overall vehicle cost, potentially impacting compliance with emission standards if it necessitates compromises in other emission-reducing components.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Annual maintenance cost below $120</t>
+          <t>Top speed of at least 100 km/h for versatility</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Compliance with global emission standards (e.g., BS6 or Euro 5)</t>
+          <t>Front and rear disc brakes for reliable performance</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cost Conflict</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Meeting stringent global emission standards often requires more expensive technology, potentially exceeding the $120 annual maintenance budget.</t>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Top speed of at least 100 km/h for versatility</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Compliance with global emission standards (e.g., BS6 or Euro 5)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Requires manual review</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Seat height adjustable between 750-850 mm for rider comfort</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Digital dashboard with smartphone connectivity</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Requires manual review</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Seat height adjustable between 750-850 mm for rider comfort</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Front and rear disc brakes for reliable performance</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Requires manual review</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Seat height adjustable between 750-850 mm for rider comfort</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Annual maintenance cost below $120</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Requires manual review</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Digital dashboard with smartphone connectivity</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Front and rear disc brakes for reliable performance</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Requires manual review</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Seat height adjustable between 750-850 mm for rider comfort</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>Lightweight frame under 150 kg for better handling</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Requires manual review</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Seat height adjustable between 750-850 mm for rider comfort</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>Compliance with global emission standards (e.g., BS6 or Euro 5)</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Performance Conflict</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>A lightweight frame may necessitate the use of less robust materials, potentially impacting the vehicle's ability to meet stringent emission standards through compromised structural integrity and engine integration.</t>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Requires manual review</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Digital dashboard with smartphone connectivity</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Annual maintenance cost below $120</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Requires manual review</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Digital dashboard with smartphone connectivity</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Lightweight frame under 150 kg for better handling</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Requires manual review</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Digital dashboard with smartphone connectivity</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Compliance with global emission standards (e.g., BS6 or Euro 5)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Requires manual review</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Front and rear disc brakes for reliable performance</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Annual maintenance cost below $120</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Requires manual review</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Front and rear disc brakes for reliable performance</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Lightweight frame under 150 kg for better handling</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Requires manual review</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Front and rear disc brakes for reliable performance</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Compliance with global emission standards (e.g., BS6 or Euro 5)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Requires manual review</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Annual maintenance cost below $120</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Compliance with global emission standards (e.g., BS6 or Euro 5)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Requires manual review</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Annual maintenance cost below $120</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Lightweight frame under 150 kg for better handling</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Requires manual review</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Lightweight frame under 150 kg for better handling</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Compliance with global emission standards (e.g., BS6 or Euro 5)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Requires manual review</t>
         </is>
       </c>
     </row>

--- a/Results/FileAnalysis/XLSX/results.xlsx
+++ b/Results/FileAnalysis/XLSX/results.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Electric motor with a minimum range of 120 km per charge</t>
+          <t>Seat height adjustable between 750-850 mm for rider comfort</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -485,7 +485,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anti-lock braking system (ABS) for improved stopping power</t>
+          <t>Electric motor with a minimum range of 120 km per charge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Top speed of at least 100 km/h for versatility</t>
+          <t>Anti-lock braking system (ABS) for improved stopping power</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lightweight frame under 150 kg for better handling</t>
+          <t>Top speed of at least 100 km/h for versatility</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Seat height adjustable between 750-850 mm for rider comfort</t>
+          <t>Lightweight frame under 150 kg for better handling</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -634,12 +634,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fuel efficiency of at least 60 km/l for petrol engines</t>
+          <t>Anti-lock braking system (ABS) for improved stopping power</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Compliance with global emission standards (e.g., BS6 or Euro 5)</t>
+          <t>Electric motor with a minimum range of 120 km per charge</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -656,12 +656,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Anti-lock braking system (ABS) for improved stopping power</t>
+          <t>Fuel efficiency of at least 60 km/l for petrol engines</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Top speed of at least 100 km/h for versatility</t>
+          <t>Compliance with global emission standards (e.g., BS6 or Euro 5)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Front and rear disc brakes for reliable performance</t>
+          <t>Top speed of at least 100 km/h for versatility</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Electric motor with a minimum range of 120 km per charge</t>
+          <t>Seat height adjustable between 750-850 mm for rider comfort</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lightweight frame under 150 kg for better handling</t>
+          <t>Digital dashboard with smartphone connectivity</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Digital dashboard with smartphone connectivity</t>
+          <t>Front and rear disc brakes for reliable performance</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Seat height adjustable between 750-850 mm for rider comfort</t>
+          <t>Annual maintenance cost below $120</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Annual maintenance cost below $120</t>
+          <t>Lightweight frame under 150 kg for better handling</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Lightweight frame under 150 kg for better handling</t>
+          <t>Front and rear disc brakes for reliable performance</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Annual maintenance cost below $120</t>
+          <t>Lightweight frame under 150 kg for better handling</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Front and rear disc brakes for reliable performance</t>
+          <t>Annual maintenance cost below $120</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Annual maintenance cost below $120</t>
+          <t>Digital dashboard with smartphone connectivity</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Digital dashboard with smartphone connectivity</t>
+          <t>Front and rear disc brakes for reliable performance</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Lightweight frame under 150 kg for better handling</t>
+          <t>Annual maintenance cost below $120</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Front and rear disc brakes for reliable performance</t>
+          <t>Compliance with global emission standards (e.g., BS6 or Euro 5)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Compliance with global emission standards (e.g., BS6 or Euro 5)</t>
+          <t>Lightweight frame under 150 kg for better handling</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Annual maintenance cost below $120</t>
+          <t>Lightweight frame under 150 kg for better handling</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1184,12 +1184,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Digital dashboard with smartphone connectivity</t>
+          <t>Seat height adjustable between 750-850 mm for rider comfort</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Front and rear disc brakes for reliable performance</t>
+          <t>Annual maintenance cost below $120</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Lightweight frame under 150 kg for better handling</t>
+          <t>Compliance with global emission standards (e.g., BS6 or Euro 5)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1228,12 +1228,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Seat height adjustable between 750-850 mm for rider comfort</t>
+          <t>Digital dashboard with smartphone connectivity</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Compliance with global emission standards (e.g., BS6 or Euro 5)</t>
+          <t>Front and rear disc brakes for reliable performance</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Annual maintenance cost below $120</t>
+          <t>Lightweight frame under 150 kg for better handling</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Lightweight frame under 150 kg for better handling</t>
+          <t>Annual maintenance cost below $120</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Compliance with global emission standards (e.g., BS6 or Euro 5)</t>
+          <t>Lightweight frame under 150 kg for better handling</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1404,12 +1404,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Annual maintenance cost below $120</t>
+          <t>Lightweight frame under 150 kg for better handling</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Lightweight frame under 150 kg for better handling</t>
+          <t>Compliance with global emission standards (e.g., BS6 or Euro 5)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1426,7 +1426,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Lightweight frame under 150 kg for better handling</t>
+          <t>Annual maintenance cost below $120</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
